--- a/assemblies/HPRC-bakeoff-assemblies-for-evaluation.xlsx
+++ b/assemblies/HPRC-bakeoff-assemblies-for-evaluation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmcdani/Documents/GiaB/Benchmarking/assembly-benchmarking/hpp/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmcdani/Documents/GiaB/Benchmarking/assembly-benchmarking/hpp/assemblies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF73665-50E2-8E48-93BC-F4C45F8296F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C3FF86-D472-5D4F-B43F-63A6633DF191}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2540" yWindow="500" windowWidth="35840" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="620" yWindow="460" windowWidth="35840" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="215">
   <si>
     <t>Type</t>
   </si>
@@ -605,13 +605,73 @@
   </si>
   <si>
     <t>md5 of files used for NIST benchmarking</t>
+  </si>
+  <si>
+    <t>asm9a</t>
+  </si>
+  <si>
+    <t>asm9b</t>
+  </si>
+  <si>
+    <t>DFCI/HC_DFCI-hifiasm</t>
+  </si>
+  <si>
+    <t>DFCI_HC.hifiasm.mat.ctg.fa</t>
+  </si>
+  <si>
+    <t>DFCI_HC.hifiasm.pat.ctg.fa</t>
+  </si>
+  <si>
+    <t>HiFi 34x; trio 30x, hifiasm</t>
+  </si>
+  <si>
+    <t>s3://human-pangenomics/HPRC/HG002_Assessment/assemblies/DFCI-hifiasm/DFCI_HC.hifiasm.mat.ctg.fa.gz</t>
+  </si>
+  <si>
+    <t>s3://human-pangenomics/HPRC/HG002_Assessment/assemblies/DFCI-hifiasm/DFCI_HC.hifiasm.pat.ctg.fa.gz</t>
+  </si>
+  <si>
+    <t>asm9_05a</t>
+  </si>
+  <si>
+    <t>asm9_05b</t>
+  </si>
+  <si>
+    <t>b7676db3c4f2c71d4db5b1c46a31e96e</t>
+  </si>
+  <si>
+    <t>531c3b93b172d750400aadbb7d96c598</t>
+  </si>
+  <si>
+    <t>c6e86c2a743f6558d42cf7d912b20ddf</t>
+  </si>
+  <si>
+    <t>a7be9952b9607262a4e7c0919027c545</t>
+  </si>
+  <si>
+    <t>Heng Li</t>
+  </si>
+  <si>
+    <t>s3://human-pangenomics/HPRC/HG002_Assessment/assemblies/DFCI-hifiasm/trio-0.5b/ha4.pat.ctg.fa.gz</t>
+  </si>
+  <si>
+    <t>s3://human-pangenomics/HPRC/HG002_Assessment/assemblies/DFCI-hifiasm/trio-0.5b/ha4.mat.ctg.fa.gz</t>
+  </si>
+  <si>
+    <t>DFCI-hifiasm</t>
+  </si>
+  <si>
+    <t>ha4.pat.ctg.fa.gz</t>
+  </si>
+  <si>
+    <t>ha4.mat.ctg.fa.gz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -635,13 +695,24 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -671,7 +742,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -679,6 +750,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -897,15 +970,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="14.5" style="1"/>
+    <col min="1" max="2" width="14.5" style="1"/>
+    <col min="3" max="3" width="29" style="1" customWidth="1"/>
     <col min="4" max="4" width="36.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="34.1640625" style="1" customWidth="1"/>
     <col min="6" max="7" width="14.5" style="1"/>
@@ -1238,118 +1312,94 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>64</v>
+        <v>195</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>67</v>
+        <v>196</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>171</v>
+        <v>203</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>19</v>
+        <v>212</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>73</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>172</v>
+        <v>204</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>19</v>
+        <v>212</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>78</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
@@ -1357,28 +1407,28 @@
         <v>27</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>81</v>
+        <v>169</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1">
@@ -1386,28 +1436,28 @@
         <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>86</v>
+        <v>170</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1">
@@ -1415,372 +1465,489 @@
         <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>176</v>
+        <v>68</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J18" s="3"/>
+        <v>73</v>
+      </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>96</v>
+        <v>79</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>106</v>
+        <v>85</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>180</v>
+        <v>90</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>181</v>
+        <v>96</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>184</v>
+        <v>96</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>124</v>
+        <v>105</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>126</v>
+        <v>179</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>189</v>
+        <v>106</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>135</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="K28" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B30" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="K32" s="6"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C33" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D33" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E33" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F33" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G33" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H33" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="I33" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="J33" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="K29" s="6"/>
+      <c r="K33" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/assemblies/HPRC-bakeoff-assemblies-for-evaluation.xlsx
+++ b/assemblies/HPRC-bakeoff-assemblies-for-evaluation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmcdani/Documents/GiaB/Benchmarking/assembly-benchmarking/hpp/assemblies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C3FF86-D472-5D4F-B43F-63A6633DF191}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F53699D-B970-3D4B-8D82-B4CB533F74B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="460" windowWidth="35840" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -671,7 +671,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -699,6 +699,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -739,21 +747,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -970,13 +982,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="14.5" style="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
@@ -987,7 +999,7 @@
     <col min="9" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1019,7 +1031,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1049,7 +1061,7 @@
       </c>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1078,7 +1090,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,7 +1119,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -1136,7 +1148,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -1165,7 +1177,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1194,7 +1206,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -1223,7 +1235,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -1252,7 +1264,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -1281,7 +1293,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -1310,53 +1322,53 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>198</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>199</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="7" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -1379,7 +1391,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -1402,7 +1414,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -1431,7 +1443,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1">
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -1460,7 +1472,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75" customHeight="1">
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
@@ -1489,7 +1501,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.75" customHeight="1">
+    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
@@ -1518,7 +1530,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" customHeight="1">
+    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
@@ -1547,7 +1559,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1">
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -1576,7 +1588,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1">
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
@@ -1606,7 +1618,7 @@
       </c>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1">
+    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
@@ -1635,7 +1647,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1">
+    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
@@ -1664,7 +1676,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.75" customHeight="1">
+    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -1696,7 +1708,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1">
+    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
@@ -1726,7 +1738,7 @@
       </c>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1">
+    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
@@ -1755,7 +1767,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1">
+    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -1784,7 +1796,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1">
+    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
@@ -1816,7 +1828,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.75" customHeight="1">
+    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
@@ -1848,7 +1860,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.75" customHeight="1">
+    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
@@ -1880,71 +1892,139 @@
         <v>139</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.75" customHeight="1">
+    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="H32" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="I32" s="6" t="s">
+      <c r="I32" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="J32" s="6" t="s">
+      <c r="J32" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="K32" s="6"/>
-    </row>
-    <row r="33" spans="1:11" ht="15.75" customHeight="1">
+      <c r="K32" s="5"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="H33" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="I33" s="6" t="s">
+      <c r="I33" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="J33" s="6" t="s">
+      <c r="J33" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="K33" s="6"/>
+      <c r="K33" s="5"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="8"/>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C43" s="5"/>
+      <c r="D43" s="9"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
